--- a/Outputs/RIF/Tables/popPK_metric_analysis.xlsx
+++ b/Outputs/RIF/Tables/popPK_metric_analysis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1159" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1216" uniqueCount="114">
   <si>
     <t>Day 4, n = 100</t>
   </si>
@@ -341,6 +341,24 @@
   </si>
   <si>
     <t>Lung, p = 1.57e-41</t>
+  </si>
+  <si>
+    <t>Day 1, n = 1</t>
+  </si>
+  <si>
+    <t>Day 1, n = 10</t>
+  </si>
+  <si>
+    <t>Lung, p = 0.00024366</t>
+  </si>
+  <si>
+    <t>Lung, p = 0.000218</t>
+  </si>
+  <si>
+    <t>Day 1, n = 1000</t>
+  </si>
+  <si>
+    <t>Lung, p = 7.3688e-247</t>
   </si>
 </sst>
 </file>
@@ -394,13 +412,13 @@
   <cols>
     <col min="1" max="1" width="14" customWidth="true"/>
     <col min="2" max="2" width="13.54296875" customWidth="true"/>
-    <col min="3" max="3" width="9.7265625" customWidth="true"/>
+    <col min="3" max="3" width="18.90625" customWidth="true"/>
     <col min="4" max="4" width="9.26953125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>5</v>
@@ -420,10 +438,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>181.00999999999999</v>
+        <v>179.06999999999999</v>
       </c>
       <c r="D2" s="0">
-        <v>5.2300000000000004</v>
+        <v>50.100000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -434,10 +452,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>16.489999999999999</v>
+        <v>14.83</v>
       </c>
       <c r="D3" s="0">
-        <v>0.70999999999999997</v>
+        <v>1.9199999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -448,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>190.47</v>
+        <v>184.72999999999999</v>
       </c>
       <c r="D4" s="0">
-        <v>1.71</v>
+        <v>48.86</v>
       </c>
     </row>
     <row r="5">
@@ -462,10 +480,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>32.909999999999997</v>
+        <v>30.300000000000001</v>
       </c>
       <c r="D5" s="0">
-        <v>6.6299999999999999</v>
+        <v>6.2599999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -486,10 +504,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="D7" s="0">
-        <v>9.4600000000000009</v>
+        <v>5.6600000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -501,7 +519,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="0">
-        <v>16.420000000000002</v>
+        <v>15.470000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/RIF/Tables/popPK_metric_analysis.xlsx
+++ b/Outputs/RIF/Tables/popPK_metric_analysis.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Plasma" sheetId="3" r:id="rId5"/>
     <sheet name="Pleura" sheetId="4" r:id="rId6"/>
     <sheet name="Lymph Node" sheetId="5" r:id="rId7"/>
+    <sheet name="Kidney" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1216" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1786" uniqueCount="136">
   <si>
     <t>Day 4, n = 100</t>
   </si>
@@ -359,6 +360,72 @@
   </si>
   <si>
     <t>Lung, p = 7.3688e-247</t>
+  </si>
+  <si>
+    <t>Day 1, n = 5</t>
+  </si>
+  <si>
+    <t>Lung, p = 0.0038366</t>
+  </si>
+  <si>
+    <t>Lung, p = 0.00118</t>
+  </si>
+  <si>
+    <t>Lung, p = 0.00090192</t>
+  </si>
+  <si>
+    <t>Lung, p = 0.00817</t>
+  </si>
+  <si>
+    <t>Lung, p = 1.2213e-256</t>
+  </si>
+  <si>
+    <t>Lung, p = 2.0387e-300</t>
+  </si>
+  <si>
+    <t>Lung, p = 8.21e-291</t>
+  </si>
+  <si>
+    <t>Lung, p = 3.3185e-91</t>
+  </si>
+  <si>
+    <t>Oral, p = 1.52e-14</t>
+  </si>
+  <si>
+    <t>Oral, p = 4.07e-250</t>
+  </si>
+  <si>
+    <t>Lung, p = 1.4972e-290</t>
+  </si>
+  <si>
+    <t>Lung, p = 1.3212e-139</t>
+  </si>
+  <si>
+    <t>Oral, p = 0.000231</t>
+  </si>
+  <si>
+    <t>Oral, p = 2.64e-254</t>
+  </si>
+  <si>
+    <t>Lung, p = 1.7157e-270</t>
+  </si>
+  <si>
+    <t>Lung, p = 2.5197e-321</t>
+  </si>
+  <si>
+    <t>Lung, p = 1.11e-308</t>
+  </si>
+  <si>
+    <t>Lung, p = 8.9308e-131</t>
+  </si>
+  <si>
+    <t>Oral, p = 1.99e-07</t>
+  </si>
+  <si>
+    <t>Oral, p = 1.06e-263</t>
+  </si>
+  <si>
+    <t>Oral, p = 7.4e-254</t>
   </si>
 </sst>
 </file>
@@ -412,13 +479,13 @@
   <cols>
     <col min="1" max="1" width="14" customWidth="true"/>
     <col min="2" max="2" width="13.54296875" customWidth="true"/>
-    <col min="3" max="3" width="18.90625" customWidth="true"/>
+    <col min="3" max="3" width="12.26953125" customWidth="true"/>
     <col min="4" max="4" width="9.26953125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>5</v>
@@ -438,10 +505,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>179.06999999999999</v>
+        <v>193.53999999999999</v>
       </c>
       <c r="D2" s="0">
-        <v>50.100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -452,10 +519,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>14.83</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="D3" s="0">
-        <v>1.9199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -466,10 +533,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>184.72999999999999</v>
+        <v>200.6</v>
       </c>
       <c r="D4" s="0">
-        <v>48.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -480,10 +547,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>30.300000000000001</v>
+        <v>31.850000000000001</v>
       </c>
       <c r="D5" s="0">
-        <v>6.2599999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -504,10 +571,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0">
-        <v>5.6600000000000001</v>
+        <v>7.0499999999999998</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +583,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="0">
-        <v>15.470000000000001</v>
+        <v>15.02</v>
       </c>
     </row>
   </sheetData>
@@ -536,13 +603,13 @@
   <cols>
     <col min="1" max="1" width="14" customWidth="true"/>
     <col min="2" max="2" width="13.54296875" customWidth="true"/>
-    <col min="3" max="3" width="17.90625" customWidth="true"/>
+    <col min="3" max="3" width="12.26953125" customWidth="true"/>
     <col min="4" max="4" width="9.26953125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>5</v>
@@ -562,10 +629,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>190.62</v>
+        <v>226.96000000000001</v>
       </c>
       <c r="D2" s="0">
-        <v>4.1299999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -576,10 +643,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>19.780000000000001</v>
+        <v>21.780000000000001</v>
       </c>
       <c r="D3" s="0">
-        <v>2.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -590,10 +657,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>182.66999999999999</v>
+        <v>222.05000000000001</v>
       </c>
       <c r="D4" s="0">
-        <v>5.0700000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -604,10 +671,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>14.630000000000001</v>
+        <v>30.68</v>
       </c>
       <c r="D5" s="0">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -628,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0">
-        <v>7.9500000000000002</v>
+        <v>4.9100000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -640,10 +707,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="D8" s="0">
-        <v>5.1500000000000004</v>
+        <v>8.9000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +727,13 @@
   <cols>
     <col min="1" max="1" width="14" customWidth="true"/>
     <col min="2" max="2" width="13.54296875" customWidth="true"/>
-    <col min="3" max="3" width="17.90625" customWidth="true"/>
+    <col min="3" max="3" width="12.26953125" customWidth="true"/>
     <col min="4" max="4" width="9.26953125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>5</v>
@@ -686,10 +753,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>95.430000000000007</v>
+        <v>113.08</v>
       </c>
       <c r="D2" s="0">
-        <v>1.6799999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -700,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>8.6799999999999997</v>
+        <v>9.8300000000000001</v>
       </c>
       <c r="D3" s="0">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -714,10 +781,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>97.099999999999994</v>
+        <v>115.28</v>
       </c>
       <c r="D4" s="0">
-        <v>1.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -728,10 +795,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>12.33</v>
+        <v>13.529999999999999</v>
       </c>
       <c r="D5" s="0">
-        <v>1.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -752,10 +819,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0">
-        <v>1.6699999999999999</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="8">
@@ -764,10 +831,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D8" s="0">
-        <v>3.6499999999999999</v>
+        <v>3.69</v>
       </c>
     </row>
   </sheetData>
@@ -784,13 +851,13 @@
   <cols>
     <col min="1" max="1" width="14" customWidth="true"/>
     <col min="2" max="2" width="13.54296875" customWidth="true"/>
-    <col min="3" max="3" width="14.90625" customWidth="true"/>
+    <col min="3" max="3" width="18.90625" customWidth="true"/>
     <col min="4" max="4" width="9.26953125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>5</v>
@@ -810,10 +877,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>10.76</v>
+        <v>49.520000000000003</v>
       </c>
       <c r="D2" s="0">
-        <v>6.54</v>
+        <v>24.530000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -824,10 +891,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>0.63</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D3" s="0">
-        <v>0.34999999999999998</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +905,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>-95.079999999999998</v>
+        <v>51.530000000000001</v>
       </c>
       <c r="D4" s="0">
-        <v>752.21000000000004</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="5">
@@ -852,10 +919,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>0.64000000000000001</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D5" s="0">
-        <v>0.38</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -876,10 +943,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="D7" s="0">
-        <v>105.84</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="8">
@@ -888,10 +955,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="D8" s="0">
-        <v>0.01</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -908,13 +975,13 @@
   <cols>
     <col min="1" max="1" width="14" customWidth="true"/>
     <col min="2" max="2" width="13.54296875" customWidth="true"/>
-    <col min="3" max="3" width="14.90625" customWidth="true"/>
+    <col min="3" max="3" width="18.90625" customWidth="true"/>
     <col min="4" max="4" width="9.26953125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>5</v>
@@ -934,10 +1001,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>115.2</v>
+        <v>159.41999999999999</v>
       </c>
       <c r="D2" s="0">
-        <v>2.2799999999999998</v>
+        <v>78.310000000000002</v>
       </c>
     </row>
     <row r="3">
@@ -948,10 +1015,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>9.6099999999999994</v>
+        <v>11.84</v>
       </c>
       <c r="D3" s="0">
-        <v>0.56999999999999995</v>
+        <v>3.2999999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -962,10 +1029,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>-3579.46</v>
+        <v>160.44</v>
       </c>
       <c r="D4" s="0">
-        <v>26124.130000000001</v>
+        <v>78.129999999999996</v>
       </c>
     </row>
     <row r="5">
@@ -976,10 +1043,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>8.9900000000000002</v>
+        <v>11.75</v>
       </c>
       <c r="D5" s="0">
-        <v>1.46</v>
+        <v>3.1499999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1000,10 +1067,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="D7" s="0">
-        <v>3694.6599999999999</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="8">
@@ -1012,10 +1079,134 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="D8" s="0">
-        <v>0.62</v>
+        <v>0.089999999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="true"/>
+    <col min="2" max="2" width="13.54296875" customWidth="true"/>
+    <col min="3" max="3" width="9.36328125" customWidth="true"/>
+    <col min="4" max="4" width="9.26953125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0">
+        <v>271.43000000000001</v>
+      </c>
+      <c r="D2" s="0">
+        <v>141.27000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0">
+        <v>21.690000000000001</v>
+      </c>
+      <c r="D3" s="0">
+        <v>6.0800000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0">
+        <v>280.95999999999998</v>
+      </c>
+      <c r="D4" s="0">
+        <v>141.00999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="D5" s="0">
+        <v>8.1099999999999994</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="0">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="0">
+        <v>18.690000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/RIF/Tables/popPK_metric_analysis.xlsx
+++ b/Outputs/RIF/Tables/popPK_metric_analysis.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1786" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1843" uniqueCount="136">
   <si>
     <t>Day 4, n = 100</t>
   </si>
@@ -753,7 +753,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>113.08</v>
+        <v>113.09999999999999</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>9.8300000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>115.28</v>
+        <v>115.3</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>13.529999999999999</v>
+        <v>14.390000000000001</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="0">
-        <v>3.69</v>
+        <v>3.8900000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/RIF/Tables/popPK_metric_analysis.xlsx
+++ b/Outputs/RIF/Tables/popPK_metric_analysis.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1843" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1957" uniqueCount="137">
   <si>
     <t>Day 4, n = 100</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>Oral, p = 7.4e-254</t>
+  </si>
+  <si>
+    <t>Day 8, n = 1</t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>5</v>
@@ -753,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>113.09999999999999</v>
+        <v>97.799999999999997</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -767,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>10.5</v>
+        <v>9.4199999999999999</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
@@ -781,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>115.3</v>
+        <v>99.909999999999997</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -795,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>14.390000000000001</v>
+        <v>13.119999999999999</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -822,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="0">
-        <v>2.2000000000000002</v>
+        <v>2.1200000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -834,7 +837,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="0">
-        <v>3.8900000000000001</v>
+        <v>3.7000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -851,13 +854,13 @@
   <cols>
     <col min="1" max="1" width="14" customWidth="true"/>
     <col min="2" max="2" width="13.54296875" customWidth="true"/>
-    <col min="3" max="3" width="18.90625" customWidth="true"/>
+    <col min="3" max="3" width="12.26953125" customWidth="true"/>
     <col min="4" max="4" width="9.26953125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>5</v>
@@ -877,10 +880,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>49.520000000000003</v>
+        <v>106.67</v>
       </c>
       <c r="D2" s="0">
-        <v>24.530000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -891,10 +894,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>2.2000000000000002</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="D3" s="0">
-        <v>1.1200000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -905,10 +908,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>51.530000000000001</v>
+        <v>111.59999999999999</v>
       </c>
       <c r="D4" s="0">
-        <v>24.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -919,10 +922,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>2.2799999999999998</v>
+        <v>8.3499999999999997</v>
       </c>
       <c r="D5" s="0">
-        <v>1.1299999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +946,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0">
-        <v>2.0099999999999998</v>
+        <v>4.9299999999999997</v>
       </c>
     </row>
     <row r="8">
@@ -955,10 +958,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="D8" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.070000000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/RIF/Tables/popPK_metric_analysis.xlsx
+++ b/Outputs/RIF/Tables/popPK_metric_analysis.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1957" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2071" uniqueCount="137">
   <si>
     <t>Day 4, n = 100</t>
   </si>
@@ -488,7 +488,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>5</v>
@@ -508,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>193.53999999999999</v>
+        <v>167.36000000000001</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>16.829999999999998</v>
+        <v>16.11</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>200.6</v>
+        <v>174.25999999999999</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>31.850000000000001</v>
+        <v>30.59</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="0">
-        <v>7.0499999999999998</v>
+        <v>6.9000000000000004</v>
       </c>
     </row>
     <row r="8">
@@ -589,7 +589,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="0">
-        <v>15.02</v>
+        <v>14.48</v>
       </c>
     </row>
   </sheetData>
@@ -612,7 +612,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>5</v>
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>226.96000000000001</v>
+        <v>195.85</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>21.780000000000001</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>222.05000000000001</v>
+        <v>190.80000000000001</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>30.68</v>
+        <v>29.809999999999999</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="0">
-        <v>4.9100000000000001</v>
+        <v>5.0499999999999998</v>
       </c>
     </row>
     <row r="8">
@@ -713,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="0">
-        <v>8.9000000000000004</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -860,7 +860,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>5</v>
@@ -880,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>106.67</v>
+        <v>95.409999999999997</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>8.2799999999999994</v>
+        <v>7.4800000000000004</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>111.59999999999999</v>
+        <v>99.299999999999997</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>8.3499999999999997</v>
+        <v>7.4100000000000001</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="0">
-        <v>4.9299999999999997</v>
+        <v>3.8900000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +958,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="0">
         <v>0.070000000000000007</v>

--- a/Outputs/RIF/Tables/popPK_metric_analysis.xlsx
+++ b/Outputs/RIF/Tables/popPK_metric_analysis.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2071" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2261" uniqueCount="150">
   <si>
     <t>Day 4, n = 100</t>
   </si>
@@ -429,6 +429,45 @@
   </si>
   <si>
     <t>Day 8, n = 1</t>
+  </si>
+  <si>
+    <t>Day 1, n = 2</t>
+  </si>
+  <si>
+    <t>Lung, p = 1.5393e-09</t>
+  </si>
+  <si>
+    <t>Lung, p = 3.93e-10</t>
+  </si>
+  <si>
+    <t>Lung, p = 4.8959e-09</t>
+  </si>
+  <si>
+    <t>Oral, p = 1.03e-10</t>
+  </si>
+  <si>
+    <t>Lung, p = 3.8437e-09</t>
+  </si>
+  <si>
+    <t>Lung, p = 5e-10</t>
+  </si>
+  <si>
+    <t>Lung, p = 7.8473e-10</t>
+  </si>
+  <si>
+    <t>Oral, p = 6.5e-11</t>
+  </si>
+  <si>
+    <t>Lung, p = 4.4466e-27</t>
+  </si>
+  <si>
+    <t>Lung, p = 1.48e-45</t>
+  </si>
+  <si>
+    <t>Lung, p = 4.7357e-30</t>
+  </si>
+  <si>
+    <t>Oral, p = 1.12e-35</t>
   </si>
 </sst>
 </file>
@@ -482,13 +521,13 @@
   <cols>
     <col min="1" max="1" width="14" customWidth="true"/>
     <col min="2" max="2" width="13.54296875" customWidth="true"/>
-    <col min="3" max="3" width="12.26953125" customWidth="true"/>
+    <col min="3" max="3" width="17.90625" customWidth="true"/>
     <col min="4" max="4" width="9.26953125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>5</v>
@@ -508,10 +547,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>167.36000000000001</v>
+        <v>177.61000000000001</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>55.049999999999997</v>
       </c>
     </row>
     <row r="3">
@@ -522,10 +561,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>16.11</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>1.8500000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -536,10 +575,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>174.25999999999999</v>
+        <v>183.15000000000001</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>53.049999999999997</v>
       </c>
     </row>
     <row r="5">
@@ -550,10 +589,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>30.59</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>5.5700000000000003</v>
       </c>
     </row>
     <row r="6">
@@ -574,10 +613,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D7" s="0">
-        <v>6.9000000000000004</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="8">
@@ -586,10 +625,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="D8" s="0">
-        <v>14.48</v>
+        <v>14.52</v>
       </c>
     </row>
   </sheetData>
@@ -606,13 +645,13 @@
   <cols>
     <col min="1" max="1" width="14" customWidth="true"/>
     <col min="2" max="2" width="13.54296875" customWidth="true"/>
-    <col min="3" max="3" width="12.26953125" customWidth="true"/>
+    <col min="3" max="3" width="17.90625" customWidth="true"/>
     <col min="4" max="4" width="9.26953125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>5</v>
@@ -632,10 +671,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="0">
-        <v>195.85</v>
+        <v>207.94</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>63.920000000000002</v>
       </c>
     </row>
     <row r="3">
@@ -646,10 +685,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>20.260000000000002</v>
+        <v>20.77</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>2.8300000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -660,10 +699,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>190.80000000000001</v>
+        <v>201.19999999999999</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>61.68</v>
       </c>
     </row>
     <row r="5">
@@ -674,10 +713,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>29.809999999999999</v>
+        <v>29.710000000000001</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>4.3899999999999997</v>
       </c>
     </row>
     <row r="6">
@@ -698,10 +737,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="D7" s="0">
-        <v>5.0499999999999998</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="8">
@@ -710,10 +749,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="D8" s="0">
-        <v>9.5500000000000007</v>
+        <v>8.9399999999999995</v>
       </c>
     </row>
   </sheetData>
